--- a/biology/Botanique/Jardin_des_plantes_de_Poitiers/Jardin_des_plantes_de_Poitiers.xlsx
+++ b/biology/Botanique/Jardin_des_plantes_de_Poitiers/Jardin_des_plantes_de_Poitiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le jardin des plantes de Poitiers est un jardin des plantes situé à côté de l'IAE Poitiers. Sa superficie est de 1,5 ha[1] et il dispose d'une grotte artificielle, d'un bassin, d'une serre tropicale, et d'une centaine d'arbres et arbustes âgés.
+Le jardin des plantes de Poitiers est un jardin des plantes situé à côté de l'IAE Poitiers. Sa superficie est de 1,5 ha et il dispose d'une grotte artificielle, d'un bassin, d'une serre tropicale, et d'une centaine d'arbres et arbustes âgés.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin des plantes de Poitiers a été créé par des professeurs de la faculté de médecine de l'université de Poitiers en 1869[2] à la place des jardins de l'Hôtel-Dieu. Paschal Le Coq, doyen de la faculté de médecine, avait établi le premier jardin des plantes de Poitiers en 1621 mais il a fallu déménager plusieurs fois le Jardin avant d'arriver à l'emplacement actuel[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin des plantes de Poitiers a été créé par des professeurs de la faculté de médecine de l'université de Poitiers en 1869 à la place des jardins de l'Hôtel-Dieu. Paschal Le Coq, doyen de la faculté de médecine, avait établi le premier jardin des plantes de Poitiers en 1621 mais il a fallu déménager plusieurs fois le Jardin avant d'arriver à l'emplacement actuel.
 </t>
         </is>
       </c>
